--- a/report/詳細設計書/詳細設計書_I0002_アカウント作成画面.xlsx
+++ b/report/詳細設計書/詳細設計書_I0002_アカウント作成画面.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8070" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="9240" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
-    <sheet name="IE0001" sheetId="12" r:id="rId1"/>
-    <sheet name="IE0002" sheetId="15" r:id="rId2"/>
-    <sheet name="IE0003" sheetId="16" r:id="rId3"/>
+    <sheet name="修正履歴" sheetId="17" r:id="rId1"/>
+    <sheet name="IE0001" sheetId="12" r:id="rId2"/>
+    <sheet name="IE0002" sheetId="15" r:id="rId3"/>
+    <sheet name="IE0003" sheetId="16" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IE0001'!$A$1:$AF$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'IE0002'!$A$1:$AF$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'IE0003'!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'IE0001'!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'IE0002'!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'IE0003'!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -295,6 +297,41 @@
     <t>①マウスオーバーした場合、メッセージコード「IMI0001」を出力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正シート</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>修正者</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>修正内容</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -303,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +385,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -369,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -671,13 +723,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,6 +917,18 @@
     <xf numFmtId="11" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -807,9 +956,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -834,18 +980,94 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1157,9 +1379,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="61"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="62">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="69">
+        <v>2</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="72"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="62">
+        <v>3</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="72"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="69">
+        <v>4</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="68"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="62">
+        <v>5</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="68"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="69">
+        <v>6</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="72"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="62">
+        <v>7</v>
+      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="68"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="69">
+        <v>8</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="68"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="62">
+        <v>9</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="68"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="69">
+        <v>10</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="68"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="62">
+        <v>11</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="68"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="69">
+        <v>12</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="68"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="62">
+        <v>13</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="68"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="69">
+        <v>14</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="68"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="62">
+        <v>15</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="68"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="69">
+        <v>16</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="68"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="62">
+        <v>17</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="68"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="62">
+        <v>18</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="68"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="69">
+        <v>19</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="68"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="62">
+        <v>20</v>
+      </c>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="68"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="62"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="68"/>
+    </row>
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="81"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1173,13 +2187,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1426,296 +2440,296 @@
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="36"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="40"/>
     </row>
     <row r="17" spans="3:29">
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="39"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="43"/>
     </row>
     <row r="18" spans="3:29">
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="39"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="43"/>
     </row>
     <row r="19" spans="3:29">
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="39"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43"/>
     </row>
     <row r="20" spans="3:29">
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="39"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="43"/>
     </row>
     <row r="21" spans="3:29">
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="39"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="43"/>
     </row>
     <row r="22" spans="3:29">
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="39"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="43"/>
     </row>
     <row r="23" spans="3:29">
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="39"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="43"/>
     </row>
     <row r="24" spans="3:29">
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="39"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="43"/>
     </row>
     <row r="25" spans="3:29">
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="42"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1727,7 +2741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF25"/>
   <sheetViews>
@@ -1866,7 +2880,7 @@
       <c r="AF4" s="22"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1998,296 +3012,296 @@
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="45"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="48"/>
     </row>
     <row r="17" spans="3:29">
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="51"/>
     </row>
     <row r="18" spans="3:29">
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="51"/>
     </row>
     <row r="19" spans="3:29">
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="51"/>
     </row>
     <row r="20" spans="3:29">
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="51"/>
     </row>
     <row r="21" spans="3:29">
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="51"/>
     </row>
     <row r="22" spans="3:29">
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="51"/>
     </row>
     <row r="23" spans="3:29">
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="51"/>
     </row>
     <row r="24" spans="3:29">
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="51"/>
     </row>
     <row r="25" spans="3:29">
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2299,7 +3313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF25"/>
   <sheetViews>
@@ -2570,296 +3584,296 @@
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="36"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="40"/>
     </row>
     <row r="17" spans="3:29">
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="39"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="43"/>
     </row>
     <row r="18" spans="3:29">
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="39"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="43"/>
     </row>
     <row r="19" spans="3:29">
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="39"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43"/>
     </row>
     <row r="20" spans="3:29">
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="39"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="43"/>
     </row>
     <row r="21" spans="3:29">
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="39"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="43"/>
     </row>
     <row r="22" spans="3:29">
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="39"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="43"/>
     </row>
     <row r="23" spans="3:29">
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="39"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="43"/>
     </row>
     <row r="24" spans="3:29">
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="39"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="43"/>
     </row>
     <row r="25" spans="3:29">
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="42"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/report/詳細設計書/詳細設計書_I0002_アカウント作成画面.xlsx
+++ b/report/詳細設計書/詳細設計書_I0002_アカウント作成画面.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="15090" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="17" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'IE0001'!$A$1:$AF$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'IE0002'!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'IE0002'!$A$1:$AF$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'IE0003'!$A$1:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -269,31 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①アカウント情報テーブルに引数.IDが存在する場合、
-メッセージコード「IME0001」を出力
-②引数.パスワードが大英語、小英語、数字、特殊文字のうち、3種類以上を使用しない場合、
-メッセージコード「IME0002」を出力
-③引数.パスワード再≠引数.パスワード場合、
-メッセージコード「IME0003」を出力
-④引数.メールアドレスがメール形式ではない場合、
-メッセージコード「IME0004」を出力
-➄①～④ではない場合、
-メッセージコード「IMI0002」を出力し、DBに登録後、I0001画面へ遷移</t>
-    <rPh sb="2" eb="4">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="242" eb="243">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①マウスオーバーした場合、メッセージコード「IMI0001」を出力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -331,6 +306,123 @@
   <si>
     <t>修正内容</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>IE0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <rPh sb="0" eb="3">
+      <t>フトシトラクマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <rPh sb="0" eb="3">
+      <t>ﾌﾄｼﾄﾗｸﾏ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目番号修正</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力項目修正</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号修正、必須・最大桁・最小桁チェック追記、メールチェック削除</t>
+    <rPh sb="7" eb="9">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①引数.ID、引数.パスワード、引数.パスワード再、引数.名前のうち、未入力である場合、
+メッセージコード「IME0004」を出力
+②引数.ID、引数.パスワード、引数.名前の最大桁以上の場合、
+メッセージコード「IME0006」を出力
+③引数.ID、引数.パスワード、引数.名前の最小桁以下の場合、
+メッセージコード「IME0007」を出力
+④アカウント情報テーブルに引数.IDが存在する場合、
+メッセージコード「IME0001」を出力
+⑤引数.パスワードが大英語、小英語、数字、特殊文字のうち、3種類以上を使用しない場合、
+メッセージコード「IME0002」を出力
+⑥引数.パスワード≠引数.パスワード再場合、
+メッセージコード「IME0003」を出力
+⑦①～⑥ではない場合、
+メッセージコード「IMI0002」を出力し、DBに登録後、I0001画面へ遷移</t>
+    <rPh sb="29" eb="31">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="368" eb="369">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -421,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -805,6 +897,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -814,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,6 +1065,126 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -979,90 +1235,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1382,785 +1554,797 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.75" style="55"/>
+    <col min="1" max="1" width="4" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="1:28">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="C2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="58" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="59" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="44"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="64">
+        <v>44639</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="61"/>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="62">
-        <v>1</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="50"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="69">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="71"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="77"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="72"/>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="62">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="50"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="45">
         <v>3</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="72"/>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="69">
+      <c r="B7" s="52"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="50"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="51">
         <v>4</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="68"/>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="62">
+      <c r="B8" s="52"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="53"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="45">
         <v>5</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="68"/>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="69">
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="50"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="51">
         <v>6</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="72"/>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="62">
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="50"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="45">
         <v>7</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="68"/>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="69">
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="50"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="51">
         <v>8</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="68"/>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="62">
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="50"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="45">
         <v>9</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="68"/>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="69">
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="50"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="51">
         <v>10</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="68"/>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="62">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="50"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="45">
         <v>11</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="68"/>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="69">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="50"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="51">
         <v>12</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="68"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="62">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="50"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="45">
         <v>13</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="68"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="69">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="50"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="51">
         <v>14</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="68"/>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="62">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="50"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="45">
         <v>15</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="68"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="69">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="50"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="51">
         <v>16</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="68"/>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="62">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="50"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="45">
         <v>17</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="68"/>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="62">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="50"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="51">
         <v>18</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="68"/>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="69">
-        <v>19</v>
-      </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="68"/>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="62">
-        <v>20</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="68"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="50"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="62"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="68"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="50"/>
     </row>
     <row r="24" spans="1:28" ht="19.5" thickBot="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="81"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="62"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="82"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2174,7 +2358,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="AA9" activeCellId="1" sqref="AA2 AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -2265,7 +2449,9 @@
         <v>8</v>
       </c>
       <c r="Z2" s="14"/>
-      <c r="AA2" s="18"/>
+      <c r="AA2" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
@@ -2347,7 +2533,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="C9" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>23</v>
@@ -2440,296 +2626,296 @@
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="C16" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="40"/>
+      <c r="C16" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="80"/>
     </row>
     <row r="17" spans="3:29">
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="43"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="83"/>
     </row>
     <row r="18" spans="3:29">
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="43"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="83"/>
     </row>
     <row r="19" spans="3:29">
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="43"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="83"/>
     </row>
     <row r="20" spans="3:29">
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="43"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="83"/>
     </row>
     <row r="21" spans="3:29">
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="43"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="83"/>
     </row>
     <row r="22" spans="3:29">
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="43"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="83"/>
     </row>
     <row r="23" spans="3:29">
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="43"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="83"/>
     </row>
     <row r="24" spans="3:29">
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="43"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="83"/>
     </row>
     <row r="25" spans="3:29">
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="46"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2743,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -2837,7 +3023,9 @@
         <v>8</v>
       </c>
       <c r="Z2" s="14"/>
-      <c r="AA2" s="18"/>
+      <c r="AA2" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
@@ -2919,7 +3107,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="C9" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>3</v>
@@ -3012,304 +3200,420 @@
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="C16" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="48"/>
+      <c r="C16" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="88"/>
     </row>
     <row r="17" spans="3:29">
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="51"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="91"/>
     </row>
     <row r="18" spans="3:29">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="51"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="91"/>
     </row>
     <row r="19" spans="3:29">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="51"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="91"/>
     </row>
     <row r="20" spans="3:29">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="51"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="91"/>
     </row>
     <row r="21" spans="3:29">
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="51"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="91"/>
     </row>
     <row r="22" spans="3:29">
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="51"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="91"/>
     </row>
     <row r="23" spans="3:29">
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="51"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="91"/>
     </row>
     <row r="24" spans="3:29">
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="51"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="91"/>
     </row>
     <row r="25" spans="3:29">
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="54"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="91"/>
+    </row>
+    <row r="26" spans="3:29">
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="91"/>
+    </row>
+    <row r="27" spans="3:29">
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="91"/>
+    </row>
+    <row r="28" spans="3:29">
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="91"/>
+    </row>
+    <row r="29" spans="3:29">
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C16:AC25"/>
+    <mergeCell ref="C16:AC29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3318,7 +3622,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -3409,7 +3713,9 @@
         <v>8</v>
       </c>
       <c r="Z2" s="14"/>
-      <c r="AA2" s="18"/>
+      <c r="AA2" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
@@ -3491,7 +3797,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="C9" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>32</v>
@@ -3584,296 +3890,296 @@
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="40"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="80"/>
     </row>
     <row r="17" spans="3:29">
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="43"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="83"/>
     </row>
     <row r="18" spans="3:29">
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="43"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="83"/>
     </row>
     <row r="19" spans="3:29">
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="43"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="83"/>
     </row>
     <row r="20" spans="3:29">
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="43"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="83"/>
     </row>
     <row r="21" spans="3:29">
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="43"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="83"/>
     </row>
     <row r="22" spans="3:29">
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="43"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="83"/>
     </row>
     <row r="23" spans="3:29">
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="43"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="83"/>
     </row>
     <row r="24" spans="3:29">
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="43"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="83"/>
     </row>
     <row r="25" spans="3:29">
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="46"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
